--- a/APPM3310/SECMatrix.xlsx
+++ b/APPM3310/SECMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5EAC852718420573/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APPM3310\APPM3310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3B7493-12F5-4D2C-B8F2-35195214E5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A65D9-EB80-4A84-A4CE-E79E2710EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87694B22-A654-4FB3-9518-899E98B4D83E}"/>
   </bookViews>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC8246-A8DB-4803-932C-E00027416AF1}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +595,7 @@
         <v>1</v>
       </c>
       <c r="R2">
-        <f>SUM(B2:Q2)</f>
+        <f>SUM(C2:Q2)</f>
         <v>13</v>
       </c>
     </row>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <f>SUM(B3:Q3)</f>
+        <f>SUM(B3,D3:Q3)</f>
         <v>8</v>
       </c>
     </row>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R18" si="0">SUM(B4:Q4)</f>
+        <f>SUM(B4:C4,E4:Q4)</f>
         <v>15</v>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:D5,F5:Q5)</f>
         <v>14</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:E6,G6:Q6)</f>
         <v>8</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:F7,H7:Q7)</f>
         <v>10</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:G8,I8:Q8)</f>
         <v>3</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="R9">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:H9,J9:Q9)</f>
         <v>8</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:I10,K10:Q10)</f>
         <v>10</v>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:J11,L11:Q11)</f>
         <v>10</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:K12,M12:Q12)</f>
         <v>6</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:L13,N13:Q13)</f>
         <v>2</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:M14,O14:Q14)</f>
         <v>12</v>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:N15,P15:Q15)</f>
         <v>6</v>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f>SUM(C16:O16,Q16)</f>
         <v>11</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R4:R17" si="0">SUM(C17:Q17)</f>
         <v>8</v>
       </c>
     </row>
@@ -1459,67 +1459,67 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>SUM(B2:B17)</f>
+        <f>SUM(B3:B17)</f>
         <v>5</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:Q18" si="1">SUM(C2:C17)</f>
+        <f>SUM(C2,C3:C17)</f>
         <v>10</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(D2:D4,D6:D17)</f>
+        <v>2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f>SUM(E2:E4,E6:E17)</f>
         <v>4</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f>SUM(F2:F5,F7:F17)</f>
         <v>10</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>SUM(G2:G6,G8:G17)</f>
         <v>8</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f>SUM(H2:H7,H9:H17)</f>
         <v>15</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f>SUM(I2:I8,I10:I17)</f>
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f>SUM(J2:J9,J11:J17)</f>
         <v>8</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f>SUM(K2:K10,K12:K17)</f>
         <v>8</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f>SUM(L2:L12,L14:L17)</f>
         <v>12</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f>SUM(M2:M12,M14:M17)</f>
         <v>16</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f>SUM(N2:N13,N15:N17)</f>
         <v>6</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
+        <f>SUM(O2:O14,O16:O17)</f>
         <v>12</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
+        <f>SUM(P2:P15,P17)</f>
         <v>7</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="1"/>
+        <f>SUM(Q2:Q16)</f>
         <v>10</v>
       </c>
     </row>

--- a/APPM3310/SECMatrix.xlsx
+++ b/APPM3310/SECMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APPM3310\APPM3310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A65D9-EB80-4A84-A4CE-E79E2710EB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C582D1-E55A-4BB9-9F0E-126E1C45EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87694B22-A654-4FB3-9518-899E98B4D83E}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <f t="shared" ref="R4:R17" si="0">SUM(C17:Q17)</f>
+        <f t="shared" ref="R17" si="0">SUM(C17:Q17)</f>
         <v>8</v>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <f>SUM(C2,C3:C17)</f>
+        <f>SUM(C2,C4:C17)</f>
         <v>10</v>
       </c>
       <c r="D18">
-        <f>SUM(D2:D4,D6:D17)</f>
-        <v>2</v>
+        <f>SUM(D2:D3,D5:D17)</f>
+        <v>3</v>
       </c>
       <c r="E18">
         <f>SUM(E2:E4,E6:E17)</f>

--- a/APPM3310/SECMatrix.xlsx
+++ b/APPM3310/SECMatrix.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APPM3310\APPM3310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C582D1-E55A-4BB9-9F0E-126E1C45EF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC61820-E743-475E-970E-E9F740B33F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{87694B22-A654-4FB3-9518-899E98B4D83E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19" uniqueCount="19">
   <si>
     <t>Alabama</t>
   </si>
@@ -87,13 +87,19 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Losses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,12 +124,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,7 +150,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -293,7 +301,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -317,9 +325,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -343,7 +351,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -378,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -396,7 +404,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -421,7 +429,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -457,23 +465,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC8246-A8DB-4803-932C-E00027416AF1}">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC8246-A8DB-4803-932C-E00027416AF1}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="true" zoomScale="96" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="true"/>
+    <col min="9" max="9" width="14.59765625" customWidth="true"/>
+    <col min="13" max="13" width="13.296875" customWidth="true"/>
+    <col min="14" max="14" width="10.59765625" customWidth="true"/>
+    <col min="16" max="16" width="11.5" customWidth="true"/>
+    <col min="2" max="2" width="11.5" customWidth="true"/>
+    <col min="3" max="3" width="11.5" customWidth="true"/>
+    <col min="4" max="4" width="11.5" customWidth="true"/>
+    <col min="5" max="5" width="11.5" customWidth="true"/>
+    <col min="6" max="6" width="11.5" customWidth="true"/>
+    <col min="7" max="7" width="11.5" customWidth="true"/>
+    <col min="8" max="8" width="12.5" customWidth="true"/>
+    <col min="10" max="10" width="11.5" customWidth="true"/>
+    <col min="11" max="11" width="11.5" customWidth="true"/>
+    <col min="12" max="12" width="11.5" customWidth="true"/>
+    <col min="15" max="15" width="11.5" customWidth="true"/>
+    <col min="17" max="17" width="11.5" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
       <c r="B1" t="str">
         <f>A2</f>
         <v>Alabama</v>
@@ -542,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -599,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -713,7 +733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -827,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -884,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -941,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -998,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1169,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1226,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1340,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1454,9 +1474,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <f>SUM(B3:B17)</f>
@@ -1521,6 +1541,59 @@
       <c r="Q18">
         <f>SUM(Q2:Q16)</f>
         <v>10</v>
+      </c>
+    </row>
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2.7814497437938779</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1.5336218408881446</v>
+      </c>
+      <c r="D20" s="0">
+        <v>3.3339467336773101</v>
+      </c>
+      <c r="E20" s="0">
+        <v>3.0346414030839846</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1.3781296613038059</v>
+      </c>
+      <c r="G20" s="0">
+        <v>2.3011616010231957</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.37819949716345735</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1.315340348708228</v>
+      </c>
+      <c r="J20" s="0">
+        <v>2.0792184606009294</v>
+      </c>
+      <c r="K20" s="0">
+        <v>1.8803254952733148</v>
+      </c>
+      <c r="L20" s="0">
+        <v>1.069561430987569</v>
+      </c>
+      <c r="M20" s="0">
+        <v>0.3474384429159148</v>
+      </c>
+      <c r="N20" s="0">
+        <v>2.5745372104395376</v>
+      </c>
+      <c r="O20" s="0">
+        <v>1.1963116465628461</v>
+      </c>
+      <c r="P20" s="0">
+        <v>1.9904697571292784</v>
+      </c>
+      <c r="Q20" s="0">
+        <v>1.694270628054859</v>
       </c>
     </row>
   </sheetData>

--- a/APPM3310/SECMatrix.xlsx
+++ b/APPM3310/SECMatrix.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APPM3310\APPM3310\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC61820-E743-475E-970E-E9F740B33F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66924D3-4845-4737-B32E-8B4CFCC101E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Alabama</t>
   </si>
@@ -93,13 +115,16 @@
   </si>
   <si>
     <t>Losses</t>
+  </si>
+  <si>
+    <t>Teams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,14 +149,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -150,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -301,7 +325,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -325,9 +349,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -351,7 +375,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -386,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -404,7 +428,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -429,7 +453,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -465,35 +489,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC8246-A8DB-4803-932C-E00027416AF1}">
-  <dimension ref="A1:R20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FBC8246-A8DB-4803-932C-E00027416AF1}">
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScale="96" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="true"/>
-    <col min="9" max="9" width="14.59765625" customWidth="true"/>
-    <col min="13" max="13" width="13.296875" customWidth="true"/>
-    <col min="14" max="14" width="10.59765625" customWidth="true"/>
-    <col min="16" max="16" width="11.5" customWidth="true"/>
-    <col min="2" max="2" width="11.5" customWidth="true"/>
-    <col min="3" max="3" width="11.5" customWidth="true"/>
-    <col min="4" max="4" width="11.5" customWidth="true"/>
-    <col min="5" max="5" width="11.5" customWidth="true"/>
-    <col min="6" max="6" width="11.5" customWidth="true"/>
-    <col min="7" max="7" width="11.5" customWidth="true"/>
-    <col min="8" max="8" width="12.5" customWidth="true"/>
-    <col min="10" max="10" width="11.5" customWidth="true"/>
-    <col min="11" max="11" width="11.5" customWidth="true"/>
-    <col min="12" max="12" width="11.5" customWidth="true"/>
-    <col min="15" max="15" width="11.5" customWidth="true"/>
-    <col min="17" max="17" width="11.5" customWidth="true"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="15" max="17" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" t="str">
         <f>A2</f>
         <v>Alabama</v>
@@ -562,7 +577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -733,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -790,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -847,7 +862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -904,7 +919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -961,7 +976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1417,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1543,60 +1558,281 @@
         <v>10</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="str">
+        <f>B1</f>
+        <v>Alabama</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" ref="C19:Q19" si="1">C1</f>
+        <v>Arkansas</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>Auburn</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>Florida</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>Georgia</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>Kentucky</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>LSU</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="1"/>
+        <v>Mississippi State</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>Missouri</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>Ole Miss</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>Oklahoma</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>South Carolina</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>Tennessee</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>Texas</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>Texas A&amp;M</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="1"/>
+        <v>Vanderbilt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20" s="1">
         <v>2.7814497437938779</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20" s="1">
         <v>1.5336218408881446</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20" s="1">
         <v>3.3339467336773101</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="1">
         <v>3.0346414030839846</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="1">
         <v>1.3781296613038059</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20" s="1">
         <v>2.3011616010231957</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20" s="1">
         <v>0.37819949716345735</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20" s="1">
         <v>1.315340348708228</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20" s="1">
         <v>2.0792184606009294</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20" s="1">
         <v>1.8803254952733148</v>
       </c>
-      <c r="L20" s="0">
+      <c r="L20" s="1">
         <v>1.069561430987569</v>
       </c>
-      <c r="M20" s="0">
+      <c r="M20" s="1">
         <v>0.3474384429159148</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20" s="1">
         <v>2.5745372104395376</v>
       </c>
-      <c r="O20" s="0">
+      <c r="O20" s="1">
         <v>1.1963116465628461</v>
       </c>
-      <c r="P20" s="0">
+      <c r="P20" s="1">
         <v>1.9904697571292784</v>
       </c>
-      <c r="Q20" s="0">
+      <c r="Q20" s="1">
         <v>1.694270628054859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" t="str" cm="1">
+        <f t="array" ref="A22:P23">_xlfn.SORTBY(B19:Q20,B20:Q20,-1)</f>
+        <v>Auburn</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Florida</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Alabama</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Tennessee</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Kentucky</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Missouri</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Texas A&amp;M</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Ole Miss</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Vanderbilt</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Arkansas</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Georgia</v>
+      </c>
+      <c r="L22" t="str">
+        <v>Mississippi State</v>
+      </c>
+      <c r="M22" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="N22" t="str">
+        <v>Oklahoma</v>
+      </c>
+      <c r="O22" t="str">
+        <v>LSU</v>
+      </c>
+      <c r="P22" t="str">
+        <v>South Carolina</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>3.3339467336773101</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0346414030839846</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.7814497437938779</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.5745372104395376</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.3011616010231957</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.0792184606009294</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.9904697571292784</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.8803254952733148</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1.694270628054859</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1.5336218408881446</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1.3781296613038059</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1.315340348708228</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.1963116465628461</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.069561430987569</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.37819949716345735</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.3474384429159148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>